--- a/因子分析数据.xlsx
+++ b/因子分析数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tao xia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tao xia\Desktop\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4FB74-29F4-402F-8985-CF4E0DE46FA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECDBC63-0659-4790-A4B3-B9C7B0112CE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{FC903364-CBFC-475C-9FA6-CC01E78263C1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,47 +80,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各市人口总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产总值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全社会固定资产投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财政支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇非私营单位就业人员工资总额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇居民人均可支配收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算收入(待定)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农村居民可支配收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农林牧副渔总产值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规模以上工业总产值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会消费品零售总额</t>
+    <t>财政支出（亿元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出口总额（千美元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口总数（万人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产总值（亿元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全社会固定资产投资总额（亿元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般预算收入(亿元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇非私营单位就业人员工资总额（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇居民人均可支配收入（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村居民可支配收入（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农林牧副渔总产值（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模以上工业总产值（亿元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会消费品零售总额（万元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,66 +1136,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4302CFF5-2E12-424E-874D-493FB50EE8E6}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="29.375" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="36.25" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
+    <col min="13" max="13" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1228,8 +1236,11 @@
       <c r="L2">
         <v>26929798</v>
       </c>
+      <c r="M2">
+        <v>11605632.01</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1266,8 +1277,11 @@
       <c r="L3">
         <v>5433067</v>
       </c>
+      <c r="M3">
+        <v>475631.57</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1318,11 @@
       <c r="L4">
         <v>6831739</v>
       </c>
+      <c r="M4">
+        <v>561982.02</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1342,8 +1359,11 @@
       <c r="L5">
         <v>6998048</v>
       </c>
+      <c r="M5">
+        <v>4393492.62</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1380,8 +1400,11 @@
       <c r="L6">
         <v>23711061</v>
       </c>
+      <c r="M6">
+        <v>10724992.859999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="L7">
         <v>8819112</v>
       </c>
+      <c r="M7">
+        <v>4977970.4400000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1456,8 +1482,11 @@
       <c r="L8">
         <v>18281891</v>
       </c>
+      <c r="M8">
+        <v>4064206.19</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1494,8 +1523,11 @@
       <c r="L9">
         <v>16693315</v>
       </c>
+      <c r="M9">
+        <v>2844218.99</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1532,8 +1564,11 @@
       <c r="L10">
         <v>12278129</v>
       </c>
+      <c r="M10">
+        <v>2656550.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1570,8 +1605,11 @@
       <c r="L11">
         <v>6754345</v>
       </c>
+      <c r="M11">
+        <v>1795954.1</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1607,6 +1645,9 @@
       </c>
       <c r="L12">
         <v>9698859</v>
+      </c>
+      <c r="M12">
+        <v>2522588.59</v>
       </c>
     </row>
   </sheetData>
